--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U3I3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U3I3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E5C4B9-99B3-438F-8F52-16011C9626C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6654C7-447E-4E3B-B151-1E4DFD88CAD1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="131">
   <si>
     <t>Channel</t>
   </si>
@@ -200,9 +200,6 @@
     <t>usage</t>
   </si>
   <si>
-    <t>Channel Number</t>
-  </si>
-  <si>
     <t>PMP_FR_Cabling</t>
   </si>
   <si>
@@ -414,6 +411,12 @@
   </si>
   <si>
     <t>DSP_2_Feeder_Map_2</t>
+  </si>
+  <si>
+    <t>Channel_Number_DSP1</t>
+  </si>
+  <si>
+    <t>Channel_Number_DSP2</t>
   </si>
 </sst>
 </file>
@@ -748,18 +751,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -772,23 +775,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -796,7 +802,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -804,7 +810,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2">
         <v>-1</v>
@@ -812,7 +818,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -820,7 +826,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -828,7 +834,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2">
         <v>-1</v>
@@ -855,15 +861,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -871,7 +877,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -879,7 +885,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -887,7 +893,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -895,7 +901,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -903,7 +909,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -911,7 +917,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -919,7 +925,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -927,7 +933,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -935,7 +941,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -943,7 +949,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -951,7 +957,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1">
         <v>6</v>
@@ -959,7 +965,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1">
         <v>7</v>
@@ -967,7 +973,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1">
         <v>17</v>
@@ -975,7 +981,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -983,7 +989,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -991,7 +997,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -999,7 +1005,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -1007,7 +1013,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1015,7 +1021,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -1023,7 +1029,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1031,7 +1037,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1039,7 +1045,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -1047,7 +1053,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -1055,7 +1061,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -1063,7 +1069,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1071,7 +1077,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1079,7 +1085,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1087,7 +1093,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>14</v>
@@ -1095,7 +1101,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -1103,7 +1109,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -1111,7 +1117,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1119,7 +1125,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1135,7 +1141,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1143,7 +1149,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1151,7 +1157,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1159,7 +1165,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1167,7 +1173,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1175,7 +1181,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1243,10 +1249,10 @@
         <v>57</v>
       </c>
       <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
         <v>59</v>
-      </c>
-      <c r="L1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -1278,13 +1284,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -1316,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -1348,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1371,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1380,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -1412,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W6" t="s">
         <v>19</v>
@@ -1430,7 +1436,7 @@
         <v>15</v>
       </c>
       <c r="AB6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1462,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W7" t="s">
         <v>20</v>
@@ -1474,13 +1480,13 @@
         <v>11</v>
       </c>
       <c r="Z7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA7" t="s">
         <v>16</v>
       </c>
       <c r="AB7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -1512,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W8" t="s">
         <v>21</v>
@@ -1521,13 +1527,13 @@
         <v>12</v>
       </c>
       <c r="Z8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA8" t="s">
         <v>17</v>
       </c>
       <c r="AB8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1559,22 +1565,22 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W9" t="s">
         <v>22</v>
       </c>
       <c r="Y9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" t="s">
         <v>69</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>71</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -1606,13 +1612,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W10" t="s">
         <v>23</v>
       </c>
       <c r="Y10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s">
         <v>56</v>
@@ -1621,7 +1627,7 @@
         <v>18</v>
       </c>
       <c r="AB10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -1653,13 +1659,13 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W11" t="s">
         <v>24</v>
       </c>
       <c r="Y11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -1676,7 +1682,7 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1691,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W12" t="s">
         <v>25</v>
@@ -1711,7 +1717,7 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1726,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
@@ -1746,7 +1752,7 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1761,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W14" t="s">
         <v>27</v>
@@ -1781,7 +1787,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1796,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W15" t="s">
         <v>28</v>
@@ -1816,7 +1822,7 @@
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -1831,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W16" t="s">
         <v>29</v>
@@ -1851,7 +1857,7 @@
         <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1866,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W17" t="s">
         <v>30</v>
@@ -1901,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W18" t="s">
         <v>31</v>
@@ -1936,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W19" t="s">
         <v>32</v>
@@ -1993,13 +1999,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
@@ -2007,16 +2013,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
+      <c r="D1" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2122,12 +2128,12 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>14</v>
       </c>
     </row>
@@ -2136,12 +2142,12 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>15</v>
       </c>
     </row>
@@ -2150,12 +2156,12 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>16</v>
       </c>
     </row>
@@ -2164,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>10</v>
